--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -317,7 +317,7 @@
     <t>fr-lm-dispositifs-medicaux.entree.dispositifsMedicaux</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/FRLMDispositifMedical
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-dispositif-medical
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositifs-medicaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
